--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>9623300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>8206000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>8206000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>9964600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>9964600</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>9726100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>9726100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>8667500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>8667500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>11730900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>11730900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>11479200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>11479200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>7741800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>7741800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>6878200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>6878200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>11113700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>11113700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>23593400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>23593400</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>18399500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>18399500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>58852700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>58852700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>124326200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>66613100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>66613100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>66799600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>18842500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>18842500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>13773200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>13773200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>14339700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>14339700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>8012500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>8012500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>27411300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>27411300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>122452600</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>58250100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>58250100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>23345200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>23345200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>65119100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1839"/>
+  <dimension ref="A1:I1840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64743,6 +64743,41 @@
         <v>65119100</v>
       </c>
     </row>
+    <row r="1840">
+      <c r="A1840" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1840" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1840" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1840" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1840" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>26247700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1840"/>
+  <dimension ref="A1:I1841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64778,6 +64778,41 @@
         <v>26247700</v>
       </c>
     </row>
+    <row r="1841">
+      <c r="A1841" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1841" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1841" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1841" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1841" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1841" t="n">
+        <v>53278600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1841"/>
+  <dimension ref="A1:I1842"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64813,6 +64813,41 @@
         <v>53278600</v>
       </c>
     </row>
+    <row r="1842">
+      <c r="A1842" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1842" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1842" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1842" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1842" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1842" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1842" t="n">
+        <v>34309400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1842"/>
+  <dimension ref="A1:I1843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64848,6 +64848,41 @@
         <v>34309400</v>
       </c>
     </row>
+    <row r="1843">
+      <c r="A1843" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1843" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1843" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1843" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1843" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1843" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1843" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I1843" t="n">
+        <v>37761000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1843"/>
+  <dimension ref="A1:I1844"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64883,6 +64883,41 @@
         <v>37761000</v>
       </c>
     </row>
+    <row r="1844">
+      <c r="A1844" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1844" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1844" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1844" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F1844" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G1844" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1844" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1844" t="n">
+        <v>49270400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1844"/>
+  <dimension ref="A1:I1845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64918,6 +64918,41 @@
         <v>49270400</v>
       </c>
     </row>
+    <row r="1845">
+      <c r="A1845" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1845" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1845" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1845" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1845" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1845" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I1845" t="n">
+        <v>34903200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1845"/>
+  <dimension ref="A1:I1846"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64953,6 +64953,41 @@
         <v>34903200</v>
       </c>
     </row>
+    <row r="1846">
+      <c r="A1846" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1846" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1846" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1846" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1846" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1846" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1846" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1846" t="n">
+        <v>46159400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1846"/>
+  <dimension ref="A1:I1847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64988,6 +64988,41 @@
         <v>46159400</v>
       </c>
     </row>
+    <row r="1847">
+      <c r="A1847" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1847" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1847" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1847" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1847" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1847" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H1847" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I1847" t="n">
+        <v>64725700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1847"/>
+  <dimension ref="A1:I1848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65023,6 +65023,41 @@
         <v>64725700</v>
       </c>
     </row>
+    <row r="1848">
+      <c r="A1848" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1848" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1848" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I1848" t="n">
+        <v>43073900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1848"/>
+  <dimension ref="A1:I1849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65058,6 +65058,41 @@
         <v>43073900</v>
       </c>
     </row>
+    <row r="1849">
+      <c r="A1849" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1849" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1849" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H1849" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1849" t="n">
+        <v>34215800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1849"/>
+  <dimension ref="A1:I1850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65093,6 +65093,41 @@
         <v>34215800</v>
       </c>
     </row>
+    <row r="1850">
+      <c r="A1850" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1850" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G1850" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1850" t="n">
+        <v>16370500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1850"/>
+  <dimension ref="A1:I1851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65128,6 +65128,41 @@
         <v>16370500</v>
       </c>
     </row>
+    <row r="1851">
+      <c r="A1851" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1851" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1851" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1851" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1851" t="n">
+        <v>38802600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1851"/>
+  <dimension ref="A1:I1852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65163,6 +65163,41 @@
         <v>38802600</v>
       </c>
     </row>
+    <row r="1852">
+      <c r="A1852" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1852" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G1852" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H1852" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1852" t="n">
+        <v>41854100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1852"/>
+  <dimension ref="A1:I1853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65198,6 +65198,41 @@
         <v>41854100</v>
       </c>
     </row>
+    <row r="1853">
+      <c r="A1853" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1853" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1853" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G1853" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H1853" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1853" t="n">
+        <v>28868800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1853"/>
+  <dimension ref="A1:I1854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65233,6 +65233,41 @@
         <v>28868800</v>
       </c>
     </row>
+    <row r="1854">
+      <c r="A1854" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1854" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F1854" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1854" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1854" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I1854" t="n">
+        <v>24345500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1854"/>
+  <dimension ref="A1:I1855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65268,6 +65268,41 @@
         <v>24345500</v>
       </c>
     </row>
+    <row r="1855">
+      <c r="A1855" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1855" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F1855" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1855" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1855" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I1855" t="n">
+        <v>39156700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1855"/>
+  <dimension ref="A1:I1856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65303,6 +65303,41 @@
         <v>39156700</v>
       </c>
     </row>
+    <row r="1856">
+      <c r="A1856" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1856" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F1856" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1856" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1856" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1856" t="n">
+        <v>55920700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1856"/>
+  <dimension ref="A1:I1857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65338,6 +65338,41 @@
         <v>55920700</v>
       </c>
     </row>
+    <row r="1857">
+      <c r="A1857" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1857" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F1857" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1857" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H1857" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1857" t="n">
+        <v>31266100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1857"/>
+  <dimension ref="A1:I1858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65373,6 +65373,41 @@
         <v>31266100</v>
       </c>
     </row>
+    <row r="1858">
+      <c r="A1858" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1858" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1858" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1858" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H1858" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1858" t="n">
+        <v>21510900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1858"/>
+  <dimension ref="A1:I1859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65408,6 +65408,41 @@
         <v>21510900</v>
       </c>
     </row>
+    <row r="1859">
+      <c r="A1859" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1859" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1859" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1859" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H1859" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1859" t="n">
+        <v>27933200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1859"/>
+  <dimension ref="A1:I1860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65443,6 +65443,41 @@
         <v>27933200</v>
       </c>
     </row>
+    <row r="1860">
+      <c r="A1860" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1860" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1860" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G1860" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H1860" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="I1860" t="n">
+        <v>20387700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1860"/>
+  <dimension ref="A1:I1861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65478,6 +65478,41 @@
         <v>20387700</v>
       </c>
     </row>
+    <row r="1861">
+      <c r="A1861" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1861" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1861" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1861" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1861" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1861" t="n">
+        <v>28815700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1861"/>
+  <dimension ref="A1:I1862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65513,6 +65513,41 @@
         <v>28815700</v>
       </c>
     </row>
+    <row r="1862">
+      <c r="A1862" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1862" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1862" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1862" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1862" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I1862" t="n">
+        <v>42722600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1862"/>
+  <dimension ref="A1:I1863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65548,6 +65548,41 @@
         <v>42722600</v>
       </c>
     </row>
+    <row r="1863">
+      <c r="A1863" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1863" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1863" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1863" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1863" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1863" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I1863" t="n">
+        <v>24956800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1863"/>
+  <dimension ref="A1:I1864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65583,6 +65583,41 @@
         <v>24956800</v>
       </c>
     </row>
+    <row r="1864">
+      <c r="A1864" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1864" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1864" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F1864" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1864" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H1864" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1864" t="n">
+        <v>41907500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1864"/>
+  <dimension ref="A1:I1866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65618,6 +65618,76 @@
         <v>41907500</v>
       </c>
     </row>
+    <row r="1865">
+      <c r="A1865" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1865" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1865" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1865" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1865" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1865" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1865" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1865" t="n">
+        <v>27339200</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1866" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1866" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1866" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1866" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H1866" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I1866" t="n">
+        <v>25802900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1866"/>
+  <dimension ref="A1:I1867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65688,6 +65688,41 @@
         <v>25802900</v>
       </c>
     </row>
+    <row r="1867">
+      <c r="A1867" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1867" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1867" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F1867" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1867" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1867" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1867" t="n">
+        <v>18429400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1867"/>
+  <dimension ref="A1:I1870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65723,6 +65723,111 @@
         <v>18429400</v>
       </c>
     </row>
+    <row r="1868">
+      <c r="A1868" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1868" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1868" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1868" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1868" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1868" t="n">
+        <v>14043900</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1869" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1869" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1869" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1869" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I1869" t="n">
+        <v>6246300</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1870" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1870" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1870" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H1870" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I1870" t="n">
+        <v>12618400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1870"/>
+  <dimension ref="A1:I1871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65828,6 +65828,41 @@
         <v>12618400</v>
       </c>
     </row>
+    <row r="1871">
+      <c r="A1871" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1871" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1871" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G1871" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H1871" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1871" t="n">
+        <v>11244000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1871"/>
+  <dimension ref="A1:I1872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65863,6 +65863,41 @@
         <v>11244000</v>
       </c>
     </row>
+    <row r="1872">
+      <c r="A1872" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1872" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F1872" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1872" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H1872" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1872" t="n">
+        <v>23178500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5216.xlsx
+++ b/data/5216.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1872"/>
+  <dimension ref="A1:I1875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65898,6 +65898,111 @@
         <v>23178500</v>
       </c>
     </row>
+    <row r="1873">
+      <c r="A1873" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1873" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1873" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1873" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1873" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1873" t="n">
+        <v>13639700</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1874" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1874" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1874" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1874" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1874" t="n">
+        <v>10925900</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>DSONIC</t>
+        </is>
+      </c>
+      <c r="E1875" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1875" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1875" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1875" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1875" t="n">
+        <v>72200800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
